--- a/Experimental stimulus_실험용_수정본6.xlsx
+++ b/Experimental stimulus_실험용_수정본6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김민서\Desktop\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EF4366-3F0D-4488-8179-262B284A0B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9C1041-80CE-4EF9-82EC-C16598467E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="0" windowWidth="11736" windowHeight="12240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
